--- a/ConsoleApp1/bin/Debug/net8.0/Database1_Data.xlsx
+++ b/ConsoleApp1/bin/Debug/net8.0/Database1_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otvyagis\Documents\GitHub\PreprocessorDB\ConsoleApp1\bin\Debug\net8.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otvyagis\Documents\GitHub\APRIORI\ConsoleApp1\bin\Debug\net8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05279C72-A4BF-4521-9747-FD3B78752F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA54F0BB-9CD6-49BF-BD20-5CF2448CF7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,12 +109,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,7 +142,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -169,28 +177,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -524,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,43 +540,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -583,16 +585,16 @@
       <c r="C3" s="5">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -601,287 +603,126 @@
       <c r="C4" s="5">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="7"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
